--- a/analysis/wsc_val_predictions/right_wrong_comp/right_4_v_1.xlsx
+++ b/analysis/wsc_val_predictions/right_wrong_comp/right_4_v_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Documents\NYU\2020 Spring\NLU\Project\Projects\WSC\wsc-trick\analysis\wsc_val_predictions\right_wrong_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAC013-E800-4C45-AF42-24175C88C40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFFC33-C622-4D03-9540-6DFE7E0E3A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="val_gold" sheetId="1" r:id="rId1"/>
@@ -5224,12 +5224,13 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.46484375" bestFit="1" customWidth="1"/>
@@ -7708,8 +7709,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
